--- a/app/help/@about.xlsx
+++ b/app/help/@about.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Desc" sheetId="9" r:id="rId1"/>
@@ -1768,16 +1768,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="37.7109375" style="1" customWidth="1"/>
+    <col min="1" max="7" width="43.5703125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2334,7 +2334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/app/help/@about.xlsx
+++ b/app/help/@about.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="421">
   <si>
     <t xml:space="preserve">- ミラー  </t>
   </si>
@@ -83,15 +83,9 @@
     <t>## FAQ</t>
   </si>
   <si>
-    <t>[FAQへのリンク](https://drive.google.com/file/d/16ahhKVE8jSLwidHyIKKfDUXV3ogXa2-6/view?usp=sharing)</t>
-  </si>
-  <si>
     <t>## マニュアル</t>
   </si>
   <si>
-    <t>[マニュアルへのリンク](https://drive.google.com/file/d/1AfPsJbV7H5WHF7ZcvzVOJ4-e0SzVrA-p/view?usp=sharing)</t>
-  </si>
-  <si>
     <t>## Function</t>
   </si>
   <si>
@@ -113,15 +107,9 @@
     <t>## FAQs</t>
   </si>
   <si>
-    <t>[Please refer to the PDF](https://drive.google.com/file/d/1v4-EIWuucUErSg9uYZtycsGGn9o-T_2t/view?usp=sharing)</t>
-  </si>
-  <si>
     <t>## Document</t>
   </si>
   <si>
-    <t>[Please refer to the PDF.](https://drive.google.com/file/d/1gIsulxyGBY-Fl0Ki7BJ50gPFWx0iQ9Tm/view?usp=sharing)</t>
-  </si>
-  <si>
     <t xml:space="preserve">マスター側のディレクトリーに含まれる写真とビデオをアーカイブ実行日時より撮影日時が７日以前や30日以前などの条件でターゲットに移動する。（ただし、ターゲットにZIPは使用できません）  </t>
   </si>
   <si>
@@ -149,15 +137,9 @@
     <t>3. Unterschiedlich über wenn letzte Aktualisierung 3 Sekunden</t>
   </si>
   <si>
-    <t>[Bitte beachten Sie das PDF](https://drive.google.com/file/d/1v4-EIWuucUErSg9uYZtycsGGn9o-T_2t/view?usp=sharing)</t>
-  </si>
-  <si>
     <t>## Dokument</t>
   </si>
   <si>
-    <t>[Bitte beachten Sie das PDF](https://drive.google.com/file/d/1gIsulxyGBY-Fl0Ki7BJ50gPFWx0iQ9Tm/view?usp=sharing)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMBSync3 ist ein Android-Gerät den internen Speicher, MicroSD, USB-Flash und PC/NAS über WLAN mit SMBv1, SMBv2 oder SMBv3-Protokolle. Es ist ein Werkzeug zum Synchronisieren von Dateien. &lt;u&gt;**Die Synchronisation erfolgt in einer Richtung von der Quelle zum Ziel**&lt;/u&gt; und kann gespiegelt, verschoben, kopiert oder archiviert werden. Eine Kombination von Local storage(&lt;u&gt;***1**&lt;/u&gt;), SMB und ZIP ist möglich).  </t>
   </si>
   <si>
@@ -179,12 +161,6 @@
     <t>3. Différent de la dernière mise à jour 3 secondes</t>
   </si>
   <si>
-    <t>[Veuillez vous référer au PDF](https://drive.google.com/file/d/1v4-EIWuucUErSg9uYZtycsGGn9o-T_2t/view?usp=sharing)</t>
-  </si>
-  <si>
-    <t>[Veuillez vous référer au PDF](https://drive.google.com/file/d/1gIsulxyGBY-Fl0Ki7BJ50gPFWx0iQ9Tm/view?usp=sharing)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMBSync3 est le stockage interne d'un appareil Android, MicroSD, USB Flash et PC/NAS via un réseau local sans fil utilisant les protocoles SMBv1, SMBv2 ou SMBv3. C'est un outil de synchronisation de fichiers. &lt;u&gt;**La synchronisation est unidirectionnelle de la source à la destination**&lt;/u&gt; et peut être mise en miroir, déplacée, copiée ou archivée. Une combinaison de stockage local(&lt;u&gt;***1**&lt;/u&gt;), SMB et ZIP est possible).  </t>
   </si>
   <si>
@@ -206,15 +182,9 @@
     <t>3. Diverso rispetto all'ultimo aggiornamento di 3 secondi</t>
   </si>
   <si>
-    <t>[Si prega di consultare il PDF](https://drive.google.com/file/d/1v4-EIWuucUErSg9uYZtycsGGn9o-T_2t/view?usp=sharing)</t>
-  </si>
-  <si>
     <t>## Documento</t>
   </si>
   <si>
-    <t>[Si prega di consultare il PDF](https://drive.google.com/file/d/1gIsulxyGBY-Fl0Ki7BJ50gPFWx0iQ9Tm/view?usp=sharing)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMBSync3 è un dispositivo di memorizzazione interna di un dispositivo Android, MicroSD, USB Flash e PC/NAS via LAN wireless utilizzando i protocolli SMBv1, SMBv2 o SMBv3. È uno strumento per la sincronizzazione dei file. &lt;u&gt;**La sincronizzazione è unidirezionale dalla sorgente alla destinazione**&lt;/u&gt; e può essere riflessa, spostata, copiata o archiviata. E' possibile una combinazione di Archiviazione locale (&lt;u&gt;***1**&lt;/u&gt;), SMB e ZIP).  </t>
   </si>
   <si>
@@ -236,15 +206,9 @@
     <t>3. Различаются по сравнению с последним обновлением 3 секунды</t>
   </si>
   <si>
-    <t>[Пожалуйста, обратитесь к PDF-файлу](https://drive.google.com/file/d/1v4-EIWuucUErSg9uYZtycsGGn9o-T_2t/view?usp=sharing)</t>
-  </si>
-  <si>
     <t>## Документ</t>
   </si>
   <si>
-    <t>[Пожалуйста, обратитесь к PDF-файлу](https://drive.google.com/file/d/1gIsulxyGBY-Fl0Ki7BJ50gPFWx0iQ9Tm/view?usp=sharing)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMBSync3 - это внутренний накопитель устройства Android, MicroSD, USB Flash и PC/NAS по беспроводной локальной сети с использованием протоколов SMBv1, SMBv2 или SMBv3. Это инструмент для синхронизации файлов. &lt;u&gt;**Синхронизация осуществляется в один конец от источника до места назначения**&lt;/u&gt; и может быть зеркалирована, перемещена, скопирована или заархивирована. Возможна комбинация локального хранилища (&lt;u&gt;***1**&lt;/u&gt;), SMB и ZIP).  </t>
   </si>
   <si>
@@ -266,15 +230,9 @@
     <t>3. 与上次更新3秒时不同</t>
   </si>
   <si>
-    <t>[请参考PDF文件](https://drive.google.com/file/d/1v4-EIWuucUErSg9uYZtycsGGn9o-T_2t/view?usp=sharing)</t>
-  </si>
-  <si>
     <t>## 文件</t>
   </si>
   <si>
-    <t>[请参考PDF文件](https://drive.google.com/file/d/1gIsulxyGBY-Fl0Ki7BJ50gPFWx0iQ9Tm/view?usp=sharing)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMBSync3是安卓设备的内部存储，MicroSD，USB闪存和PC/NAS通过无线局域网使用SMBv1，SMBv2或SMBv3协议。它是一个同步文件的工具。 &lt;u&gt;**同步是从源头到目的地的单向**&lt;/u&gt;，可以进行镜像、移动、复制或存档。可以结合本地存储(&lt;u&gt;**1**&lt;/u&gt;)、SMB和ZIP)。 </t>
   </si>
   <si>
@@ -341,9 +299,6 @@
     <t>### 4.2.ストレージ</t>
   </si>
   <si>
-    <t>USBストレージへのファイル同期と管理ファイルの読み書きで使用します。</t>
-  </si>
-  <si>
     <t>### 4.3.Wi-Fi 接続情報</t>
   </si>
   <si>
@@ -524,9 +479,6 @@
     <t>### 4.2.Storage</t>
   </si>
   <si>
-    <t>Used for file synchronization to USB storage and read/write of management file.</t>
-  </si>
-  <si>
     <t>### 4.3.Wi-Fi Connection infomation</t>
   </si>
   <si>
@@ -650,9 +602,6 @@
     <t xml:space="preserve">modify or delete the contents of your USB storage**   </t>
   </si>
   <si>
-    <t>Dient zur Dateisynchronisation mit dem USB-Speicher und zum Lesen/Schreiben der Verwaltungsdatei.</t>
-  </si>
-  <si>
     <t>### 4.3.Wi-Fi Verbindungsinformationen</t>
   </si>
   <si>
@@ -770,9 +719,6 @@
     <t>Utilisé pour la synchronisation des fichiers avec le stockage interne/externe et la lecture/écriture du fichier de gestion.</t>
   </si>
   <si>
-    <t>Utilisé pour la synchronisation des fichiers avec le stockage USB et la lecture/écriture du fichier de gestion.</t>
-  </si>
-  <si>
     <t>Utilisé pour vérifier l'état du Wi-Fi au début de la synchronisation.</t>
   </si>
   <si>
@@ -887,9 +833,6 @@
     <t>Utilizzato per la sincronizzazione dei file con la memorizzazione interna/esterna e la lettura/scrittura dei file di gestione.</t>
   </si>
   <si>
-    <t>Utilizzato per la sincronizzazione dei file su memoria USB e la lettura/scrittura di file di gestione.</t>
-  </si>
-  <si>
     <t>Utilizzato per controllare lo stato del Wi-Fi all'inizio della sincronizzazione.</t>
   </si>
   <si>
@@ -1004,9 +947,6 @@
     <t>Используется для синхронизации файлов с внутренним/внешним хранилищем и для чтения/записи управляющего файла.</t>
   </si>
   <si>
-    <t>Используется для синхронизации файлов с USB-накопителем и чтения/записи управляющего файла.</t>
-  </si>
-  <si>
     <t>Используется для проверки состояния Wi-Fi в начале синхронизации.</t>
   </si>
   <si>
@@ -1124,9 +1064,6 @@
     <t>用于内部/外部存储的文件同步和管理文件的读/写。</t>
   </si>
   <si>
-    <t>用于USB存储的文件同步和管理文件的读/写。</t>
-  </si>
-  <si>
     <t>用于检查同步开始时Wi-Fi的状态。</t>
   </si>
   <si>
@@ -1293,13 +1230,61 @@
   </si>
   <si>
     <t xml:space="preserve">- 归档  </t>
+  </si>
+  <si>
+    <t>### 4.2.1.Android11以降</t>
+  </si>
+  <si>
+    <t>### 4.2.2.Android10まで</t>
+  </si>
+  <si>
+    <t>**All file access**</t>
+  </si>
+  <si>
+    <t>4.2.1. Android 11 or later</t>
+  </si>
+  <si>
+    <t>4.2.1. up to Android 10</t>
+  </si>
+  <si>
+    <t>https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_EN.htm</t>
+  </si>
+  <si>
+    <t>https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_EN.htm</t>
+  </si>
+  <si>
+    <t>https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_JA.htm</t>
+  </si>
+  <si>
+    <t>https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_JA.htm</t>
+  </si>
+  <si>
+    <t>内部ストレージと外部ストレージへのファイル同期と管理ファイルの読み書きで使用します。</t>
+  </si>
+  <si>
+    <t>Used to synchronize files to and from internal and external storage and to read and write management files.</t>
+  </si>
+  <si>
+    <t>Dient zum Synchronisieren von Dateien mit dem internen und externen Speicher und zum Lesen und Schreiben von Verwaltungsdateien.</t>
+  </si>
+  <si>
+    <t>Utilisé pour synchroniser les fichiers vers et depuis le stockage interne et externe et pour lire et écrire les fichiers de gestion.</t>
+  </si>
+  <si>
+    <t>Utilizzato per sincronizzare i file da e verso la memoria interna ed esterna e per leggere e scrivere i file di gestione.</t>
+  </si>
+  <si>
+    <t>Используется для синхронизации файлов во внутреннее и внешнее хранилище и из него, а также для чтения и записи управляющих файлов.</t>
+  </si>
+  <si>
+    <t>用于在内部和外部存储中同步文件，以及读写管理文件。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1307,6 +1292,14 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1431,10 +1424,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1472,8 +1469,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1769,10 +1770,10 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1838,68 +1839,68 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="210">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="180">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1916,45 +1917,45 @@
         <v>0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="105">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1962,45 +1963,45 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="195">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="165">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2008,22 +2009,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60">
@@ -2031,22 +2032,22 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2054,45 +2055,45 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="105">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="90">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2106,25 +2107,25 @@
     </row>
     <row r="16" spans="1:7" ht="60">
       <c r="A16" s="3" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2141,22 +2142,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2164,22 +2165,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="60">
@@ -2187,22 +2188,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2219,45 +2220,45 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="60">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>410</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>410</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>410</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>83</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2271,25 +2272,25 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2301,44 +2302,49 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="75">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="13" t="s">
+        <v>413</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>411</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>411</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>85</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1"/>
+    <hyperlink ref="A23" r:id="rId2"/>
+    <hyperlink ref="A27" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2349,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="B1" s="7" t="str">
         <f>A1</f>
@@ -2401,117 +2407,117 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="150">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60">
       <c r="A7" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2525,140 +2531,140 @@
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="75">
       <c r="A12" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2672,25 +2678,25 @@
     </row>
     <row r="16" spans="1:7" ht="60">
       <c r="A16" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2704,347 +2710,347 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="75">
       <c r="A19" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="60">
       <c r="A20" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60">
       <c r="A21" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45">
       <c r="A24" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="60">
       <c r="A29" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45">
       <c r="A31" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="105">
       <c r="A32" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3058,140 +3064,140 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="60">
       <c r="A39" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3205,94 +3211,80 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>105</v>
+        <v>408</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>210</v>
+        <v>408</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>105</v>
+        <v>408</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>105</v>
+        <v>408</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>210</v>
+        <v>408</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="45">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>108</v>
+        <v>407</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>169</v>
+        <v>407</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>211</v>
+        <v>407</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>251</v>
+        <v>407</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>290</v>
+        <v>407</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3304,427 +3296,560 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="60">
       <c r="A46" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30">
+      <c r="A50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60">
+      <c r="A51" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45">
+      <c r="A55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45">
+      <c r="A59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30">
+      <c r="A60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60">
+      <c r="A61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="60">
+      <c r="A63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30">
+      <c r="A65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45">
+      <c r="A67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="60">
+      <c r="A69" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
+      <c r="B69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="45">
-      <c r="A48" s="2" t="s">
+    <row r="71" spans="1:7" ht="45">
+      <c r="A71" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="45">
-      <c r="A52" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30">
-      <c r="A53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="60">
-      <c r="A54" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="60">
-      <c r="A56" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30">
-      <c r="A58" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="45">
-      <c r="A60" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="60">
-      <c r="A62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="45">
-      <c r="A64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>378</v>
+      <c r="B71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/app/help/@about.xlsx
+++ b/app/help/@about.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="28035" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Desc" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="415">
   <si>
     <t xml:space="preserve">- ミラー  </t>
   </si>
@@ -80,12 +80,6 @@
     <t>1. ファイルの最終更新日時が3秒以上違う(秒数は同期タスクのオプションにより変更可能)</t>
   </si>
   <si>
-    <t>## FAQ</t>
-  </si>
-  <si>
-    <t>## マニュアル</t>
-  </si>
-  <si>
     <t>## Function</t>
   </si>
   <si>
@@ -104,12 +98,6 @@
     <t>3. Different over when last updated 3 seconds</t>
   </si>
   <si>
-    <t>## FAQs</t>
-  </si>
-  <si>
-    <t>## Document</t>
-  </si>
-  <si>
     <t xml:space="preserve">マスター側のディレクトリーに含まれる写真とビデオをアーカイブ実行日時より撮影日時が７日以前や30日以前などの条件でターゲットに移動する。（ただし、ターゲットにZIPは使用できません）  </t>
   </si>
   <si>
@@ -137,9 +125,6 @@
     <t>3. Unterschiedlich über wenn letzte Aktualisierung 3 Sekunden</t>
   </si>
   <si>
-    <t>## Dokument</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMBSync3 ist ein Android-Gerät den internen Speicher, MicroSD, USB-Flash und PC/NAS über WLAN mit SMBv1, SMBv2 oder SMBv3-Protokolle. Es ist ein Werkzeug zum Synchronisieren von Dateien. &lt;u&gt;**Die Synchronisation erfolgt in einer Richtung von der Quelle zum Ziel**&lt;/u&gt; und kann gespiegelt, verschoben, kopiert oder archiviert werden. Eine Kombination von Local storage(&lt;u&gt;***1**&lt;/u&gt;), SMB und ZIP ist möglich).  </t>
   </si>
   <si>
@@ -182,9 +167,6 @@
     <t>3. Diverso rispetto all'ultimo aggiornamento di 3 secondi</t>
   </si>
   <si>
-    <t>## Documento</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMBSync3 è un dispositivo di memorizzazione interna di un dispositivo Android, MicroSD, USB Flash e PC/NAS via LAN wireless utilizzando i protocolli SMBv1, SMBv2 o SMBv3. È uno strumento per la sincronizzazione dei file. &lt;u&gt;**La sincronizzazione è unidirezionale dalla sorgente alla destinazione**&lt;/u&gt; e può essere riflessa, spostata, copiata o archiviata. E' possibile una combinazione di Archiviazione locale (&lt;u&gt;***1**&lt;/u&gt;), SMB e ZIP).  </t>
   </si>
   <si>
@@ -206,9 +188,6 @@
     <t>3. Различаются по сравнению с последним обновлением 3 секунды</t>
   </si>
   <si>
-    <t>## Документ</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMBSync3 - это внутренний накопитель устройства Android, MicroSD, USB Flash и PC/NAS по беспроводной локальной сети с использованием протоколов SMBv1, SMBv2 или SMBv3. Это инструмент для синхронизации файлов. &lt;u&gt;**Синхронизация осуществляется в один конец от источника до места назначения**&lt;/u&gt; и может быть зеркалирована, перемещена, скопирована или заархивирована. Возможна комбинация локального хранилища (&lt;u&gt;***1**&lt;/u&gt;), SMB и ZIP).  </t>
   </si>
   <si>
@@ -230,9 +209,6 @@
     <t>3. 与上次更新3秒时不同</t>
   </si>
   <si>
-    <t>## 文件</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMBSync3是安卓设备的内部存储，MicroSD，USB闪存和PC/NAS通过无线局域网使用SMBv1，SMBv2或SMBv3协议。它是一个同步文件的工具。 &lt;u&gt;**同步是从源头到目的地的单向**&lt;/u&gt;，可以进行镜像、移动、复制或存档。可以结合本地存储(&lt;u&gt;**1**&lt;/u&gt;)、SMB和ZIP)。 </t>
   </si>
   <si>
@@ -1247,18 +1223,6 @@
     <t>4.2.1. up to Android 10</t>
   </si>
   <si>
-    <t>https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_EN.htm</t>
-  </si>
-  <si>
-    <t>https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_EN.htm</t>
-  </si>
-  <si>
-    <t>https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_JA.htm</t>
-  </si>
-  <si>
-    <t>https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_JA.htm</t>
-  </si>
-  <si>
     <t>内部ストレージと外部ストレージへのファイル同期と管理ファイルの読み書きで使用します。</t>
   </si>
   <si>
@@ -1278,6 +1242,24 @@
   </si>
   <si>
     <t>用于在内部和外部存储中同步文件，以及读写管理文件。</t>
+  </si>
+  <si>
+    <t>## Documents</t>
+  </si>
+  <si>
+    <t>[FAQs](https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_EN.htm)</t>
+  </si>
+  <si>
+    <t>[Description](https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_EN.htm)</t>
+  </si>
+  <si>
+    <t>## ドキュメント</t>
+  </si>
+  <si>
+    <t>[よくある質問](https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_JA.htm)</t>
+  </si>
+  <si>
+    <t>[機能の説明](https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_JA.htm)</t>
   </si>
 </sst>
 </file>
@@ -1767,13 +1749,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1839,22 +1821,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="180">
@@ -1862,22 +1844,22 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60">
@@ -1885,22 +1867,22 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1917,22 +1899,22 @@
         <v>0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="90">
@@ -1940,22 +1922,22 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1963,22 +1945,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="165">
@@ -1986,22 +1968,22 @@
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2009,22 +1991,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60">
@@ -2032,22 +2014,22 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2055,45 +2037,45 @@
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="90">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2107,25 +2089,25 @@
     </row>
     <row r="16" spans="1:7" ht="60">
       <c r="A16" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2142,22 +2124,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2165,22 +2147,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="60">
@@ -2188,22 +2170,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2217,47 +2199,47 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>412</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="13" t="s">
         <v>410</v>
       </c>
     </row>
@@ -2270,69 +2252,46 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C25" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D25" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E25" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F25" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G25" s="13" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1"/>
-    <hyperlink ref="A23" r:id="rId2"/>
-    <hyperlink ref="A27" r:id="rId3"/>
+    <hyperlink ref="B23" r:id="rId1" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_JA.htm"/>
+    <hyperlink ref="B25" r:id="rId2" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_JA.htm"/>
+    <hyperlink ref="C23" r:id="rId3" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_JA.htm"/>
+    <hyperlink ref="D23" r:id="rId4" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_JA.htm"/>
+    <hyperlink ref="E23" r:id="rId5" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_JA.htm"/>
+    <hyperlink ref="F23" r:id="rId6" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_JA.htm"/>
+    <hyperlink ref="G23" r:id="rId7" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_FAQ_JA.htm"/>
+    <hyperlink ref="C25" r:id="rId8" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_JA.htm"/>
+    <hyperlink ref="D25" r:id="rId9" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_JA.htm"/>
+    <hyperlink ref="E25" r:id="rId10" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_JA.htm"/>
+    <hyperlink ref="F25" r:id="rId11" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_JA.htm"/>
+    <hyperlink ref="G25" r:id="rId12" display="https://sentaroh.github.io/Documents/SMBSync3/SMBSync3_Desc_JA.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -2340,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
@@ -2355,7 +2314,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B1" s="7" t="str">
         <f>A1</f>
@@ -2407,117 +2366,117 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="150">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2531,140 +2490,140 @@
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="75">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2678,25 +2637,25 @@
     </row>
     <row r="16" spans="1:7" ht="60">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2710,347 +2669,347 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="75">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="60">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45">
       <c r="A22" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45">
       <c r="A24" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="60">
       <c r="A29" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="105">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3064,140 +3023,140 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30">
       <c r="A38" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="60">
       <c r="A39" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3211,25 +3170,25 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3243,48 +3202,48 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3298,25 +3257,25 @@
     </row>
     <row r="46" spans="1:7" ht="60">
       <c r="A46" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3330,94 +3289,94 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60">
       <c r="A51" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3431,71 +3390,71 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3509,347 +3468,347 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="45">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="60">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="60">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="30">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="45">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="60">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="45">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
